--- a/test.xlsx
+++ b/test.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artur/Library/Application Support/JetBrains/IntelliJIdea2020.1-backup/Java IDEA Projects/SberExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC961D4A-EA12-8941-859A-BE558BF7AD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FF8B0-6305-2A4C-A346-133BE1F84D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{8A435206-3D1B-3049-BD89-C6E49E224341}"/>
+    <workbookView xWindow="5660" yWindow="1540" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{8A435206-3D1B-3049-BD89-C6E49E224341}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -90,13 +91,692 @@
   </si>
   <si>
     <t>e2e</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>Jessup</t>
+  </si>
+  <si>
+    <t>Джентльмены</t>
+  </si>
+  <si>
+    <t>Флорист</t>
+  </si>
+  <si>
+    <t>Григорий</t>
+  </si>
+  <si>
+    <t>Martel</t>
+  </si>
+  <si>
+    <t>Счастье в конверте</t>
+  </si>
+  <si>
+    <t>Каскадёр</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Edevane</t>
+  </si>
+  <si>
+    <t>Плохие парни навсегда</t>
+  </si>
+  <si>
+    <t>Военный судья</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Mangiarotti</t>
+  </si>
+  <si>
+    <t>Писатель</t>
+  </si>
+  <si>
+    <t>Аглая</t>
+  </si>
+  <si>
+    <t>Dankworth</t>
+  </si>
+  <si>
+    <t>Человек-невидимка</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Bassett</t>
+  </si>
+  <si>
+    <t>Гранатомётчик</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Brager</t>
+  </si>
+  <si>
+    <t>Проклятие</t>
+  </si>
+  <si>
+    <t>Киномеханик</t>
+  </si>
+  <si>
+    <t>Арсений</t>
+  </si>
+  <si>
+    <t>Brubaker</t>
+  </si>
+  <si>
+    <t>Скотокрад</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>Побег из Претории</t>
+  </si>
+  <si>
+    <t>Оператор кино и телевидения</t>
+  </si>
+  <si>
+    <t>Захар</t>
+  </si>
+  <si>
+    <t>Acker</t>
+  </si>
+  <si>
+    <t>Убийства по открыткам</t>
+  </si>
+  <si>
+    <t>Мастер маникюра</t>
+  </si>
+  <si>
+    <t>Осип</t>
+  </si>
+  <si>
+    <t>Fontana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яга. Кошмар тёмного </t>
+  </si>
+  <si>
+    <t>Вор</t>
+  </si>
+  <si>
+    <t>Fawzi</t>
+  </si>
+  <si>
+    <t>Цеховик</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Остров фантазий</t>
+  </si>
+  <si>
+    <t>Финансист</t>
+  </si>
+  <si>
+    <t>Лука</t>
+  </si>
+  <si>
+    <t>Beauregard</t>
+  </si>
+  <si>
+    <t>Вторжение</t>
+  </si>
+  <si>
+    <t>Канонир</t>
+  </si>
+  <si>
+    <t>Георгий</t>
+  </si>
+  <si>
+    <t>Methadonna</t>
+  </si>
+  <si>
+    <t>Повар</t>
+  </si>
+  <si>
+    <t>Агния</t>
+  </si>
+  <si>
+    <t>Gow</t>
+  </si>
+  <si>
+    <t>Геймдизайнер</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Мошенник</t>
+  </si>
+  <si>
+    <t>Ника</t>
+  </si>
+  <si>
+    <t>Лёд 2</t>
+  </si>
+  <si>
+    <t>Корректировщик</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Бладшот</t>
+  </si>
+  <si>
+    <t>Барыга</t>
+  </si>
+  <si>
+    <t>Антонина</t>
+  </si>
+  <si>
+    <t>Pelagatti</t>
+  </si>
+  <si>
+    <t>Зов предков</t>
+  </si>
+  <si>
+    <t>Техник</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>Разбойник</t>
+  </si>
+  <si>
+    <t>Леонид</t>
+  </si>
+  <si>
+    <t>Homa</t>
+  </si>
+  <si>
+    <t>Ярды</t>
+  </si>
+  <si>
+    <t>Артист цирка</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Gastrell</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Домушник</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Военный прокурор</t>
+  </si>
+  <si>
+    <t>Alinsky</t>
+  </si>
+  <si>
+    <t>Златокузнец</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Fukushima</t>
+  </si>
+  <si>
+    <t>Грузчик</t>
+  </si>
+  <si>
+    <t>Мирон</t>
+  </si>
+  <si>
+    <t>Madigan</t>
+  </si>
+  <si>
+    <t>Марафон желаний</t>
+  </si>
+  <si>
+    <t>Секретчик</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>Auclair</t>
+  </si>
+  <si>
+    <t>Просто помиловать</t>
+  </si>
+  <si>
+    <t>Гитарист</t>
+  </si>
+  <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>Шулер</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Voland</t>
+  </si>
+  <si>
+    <t>Борт-инженер</t>
+  </si>
+  <si>
+    <t>Адриан</t>
+  </si>
+  <si>
+    <t>Ingannamorte</t>
+  </si>
+  <si>
+    <t>Один вдох</t>
+  </si>
+  <si>
+    <t>Постановщик трюков</t>
+  </si>
+  <si>
+    <t>Назар</t>
+  </si>
+  <si>
+    <t>Lafitte</t>
+  </si>
+  <si>
+    <t>Соник в кино</t>
+  </si>
+  <si>
+    <t>Эрик</t>
+  </si>
+  <si>
+    <t>Под водой</t>
+  </si>
+  <si>
+    <t>Гример</t>
+  </si>
+  <si>
+    <t>Cellier</t>
+  </si>
+  <si>
+    <t>Prevost</t>
+  </si>
+  <si>
+    <t>Манекенщица</t>
+  </si>
+  <si>
+    <t>Шифровальщик</t>
+  </si>
+  <si>
+    <t>Relish</t>
+  </si>
+  <si>
+    <t>Художник по свету</t>
+  </si>
+  <si>
+    <t>Etter</t>
+  </si>
+  <si>
+    <t>Авиационный техник</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Дипломатический работник</t>
+  </si>
+  <si>
+    <t>Тихон</t>
+  </si>
+  <si>
+    <t>Paquet</t>
+  </si>
+  <si>
+    <t>Оператор вооружения</t>
+  </si>
+  <si>
+    <t>Bain</t>
+  </si>
+  <si>
+    <t>Чёрный археолог</t>
+  </si>
+  <si>
+    <t>Cienfuegos</t>
+  </si>
+  <si>
+    <t>Кинорежиссер</t>
+  </si>
+  <si>
+    <t>Начальник штаба</t>
+  </si>
+  <si>
+    <t>Dracula</t>
+  </si>
+  <si>
+    <t>Военный дознаватель</t>
+  </si>
+  <si>
+    <t>Степан</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Ozanne</t>
+  </si>
+  <si>
+    <t>Форточник</t>
+  </si>
+  <si>
+    <t>Miracle</t>
+  </si>
+  <si>
+    <t>Режиссёр</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Furyk</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Abreo</t>
+  </si>
+  <si>
+    <t>Начальник гаупвахты</t>
+  </si>
+  <si>
+    <t>Глеб</t>
+  </si>
+  <si>
+    <t>Вокалист</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Радист</t>
+  </si>
+  <si>
+    <t>Макар</t>
+  </si>
+  <si>
+    <t>Floquet</t>
+  </si>
+  <si>
+    <t>Библиотекарь</t>
+  </si>
+  <si>
+    <t>Brierman</t>
+  </si>
+  <si>
+    <t>Вперёд</t>
+  </si>
+  <si>
+    <t>Художник</t>
+  </si>
+  <si>
+    <t>Марк</t>
+  </si>
+  <si>
+    <t>Bellamy</t>
+  </si>
+  <si>
+    <t>Воспитатель</t>
+  </si>
+  <si>
+    <t>Валентина</t>
+  </si>
+  <si>
+    <t>Gushiken</t>
+  </si>
+  <si>
+    <t>Пограничник</t>
+  </si>
+  <si>
+    <t>Зоя</t>
+  </si>
+  <si>
+    <t>Heroux</t>
+  </si>
+  <si>
+    <t>Герой СамСам</t>
+  </si>
+  <si>
+    <t>Старшина</t>
+  </si>
+  <si>
+    <t>Caparasso</t>
+  </si>
+  <si>
+    <t>Machal</t>
+  </si>
+  <si>
+    <t>Химик</t>
+  </si>
+  <si>
+    <t>Rossingol</t>
+  </si>
+  <si>
+    <t>Архитектор</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Birdwhistle</t>
+  </si>
+  <si>
+    <t>Десантник</t>
+  </si>
+  <si>
+    <t>Иллюстратор</t>
+  </si>
+  <si>
+    <t>Сценарист</t>
+  </si>
+  <si>
+    <t>Seisdedos</t>
+  </si>
+  <si>
+    <t>Карманник</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Татуировщик</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Fisk</t>
+  </si>
+  <si>
+    <t>Реставратор</t>
+  </si>
+  <si>
+    <t>Катала</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Bonneville</t>
+  </si>
+  <si>
+    <t>Диджей</t>
+  </si>
+  <si>
+    <t>Palomer</t>
+  </si>
+  <si>
+    <t>Чёрный копатель</t>
+  </si>
+  <si>
+    <t>Villalobos</t>
+  </si>
+  <si>
+    <t>Кинооператор</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Joubert</t>
+  </si>
+  <si>
+    <t>Продавец</t>
+  </si>
+  <si>
+    <t>Bobusic</t>
+  </si>
+  <si>
+    <t>Фотомодель</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Витолье</t>
+  </si>
+  <si>
+    <t>Василиса</t>
+  </si>
+  <si>
+    <t>Dardar</t>
+  </si>
+  <si>
+    <t>Военно-полевой хирург</t>
+  </si>
+  <si>
+    <t>Кома</t>
+  </si>
+  <si>
+    <t>Butterworth</t>
+  </si>
+  <si>
+    <t>Наводчик орудия</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Jurado</t>
+  </si>
+  <si>
+    <t>Автоугонщик</t>
+  </si>
+  <si>
+    <t>Дизайнер рекламы</t>
+  </si>
+  <si>
+    <t>Отель Белград</t>
+  </si>
+  <si>
+    <t>Штурман</t>
+  </si>
+  <si>
+    <t>Escoffier</t>
+  </si>
+  <si>
+    <t>Борт-радист</t>
+  </si>
+  <si>
+    <t>Грабитель</t>
+  </si>
+  <si>
+    <t>Балерина</t>
+  </si>
+  <si>
+    <t>Sallow</t>
+  </si>
+  <si>
+    <t>Varville</t>
+  </si>
+  <si>
+    <t>Сиделка</t>
+  </si>
+  <si>
+    <t>Филипп</t>
+  </si>
+  <si>
+    <t>Сусанна</t>
+  </si>
+  <si>
+    <t>Bartley</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>Стилист</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Varon</t>
+  </si>
+  <si>
+    <t>Танкист</t>
+  </si>
+  <si>
+    <t>Военный юрист</t>
+  </si>
+  <si>
+    <t>Кристина</t>
+  </si>
+  <si>
+    <t>Инженер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,12 +812,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,13 +1133,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A15CACD-B511-0A47-A6DD-0F309FB001B9}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" customWidth="true" width="15.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -642,7 +1321,7 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>293983028</v>
       </c>
     </row>
@@ -650,4 +1329,2017 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2341E-4C77-3F41-B1B4-DAC1CA3D5A2D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="n">
+        <v>31677.0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29570.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23740.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27736.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22960.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42698.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39706.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43091.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40492.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16449.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30651.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15339.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43112.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24365.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10584.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37156.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17158.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19350.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32112.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11216.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="n">
+        <v>22209.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10514.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22581.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23670.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38982.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13119.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14257.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12326.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>31403.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24084.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33946.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15325.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="n">
+        <v>34262.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25510.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25166.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="n">
+        <v>40078.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13105.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15325.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10942.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="n">
+        <v>34971.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="n">
+        <v>42726.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="n">
+        <v>30244.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32836.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="n">
+        <v>35681.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="n">
+        <v>39818.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10211.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="n">
+        <v>41890.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="n">
+        <v>44103.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33545.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="n">
+        <v>23740.0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37205.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10232.0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="n">
+        <v>24730.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="n">
+        <v>40857.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11947.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="n">
+        <v>21506.0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20776.0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29162.0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="n">
+        <v>37563.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10907.0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="n">
+        <v>19996.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" t="n">
+        <v>39382.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" t="n">
+        <v>44489.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="n">
+        <v>38259.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29542.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="n">
+        <v>25889.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="n">
+        <v>35807.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="n">
+        <v>14890.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="n">
+        <v>33566.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="n">
+        <v>24000.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30209.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" t="n">
+        <v>41539.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" t="n">
+        <v>25924.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" t="n">
+        <v>26212.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="n">
+        <v>39438.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" t="n">
+        <v>42009.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="n">
+        <v>35737.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="n">
+        <v>29879.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="n">
+        <v>30968.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" t="n">
+        <v>43014.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" t="n">
+        <v>30644.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" t="n">
+        <v>42656.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" t="n">
+        <v>30307.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12754.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34346.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" t="n">
+        <v>38610.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" t="n">
+        <v>29865.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10486.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" t="n">
+        <v>12066.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="n">
+        <v>18261.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" t="n">
+        <v>38315.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" t="n">
+        <v>43442.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" t="n">
+        <v>41946.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" t="n">
+        <v>18998.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="n">
+        <v>42360.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="n">
+        <v>17896.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" t="n">
+        <v>36812.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11609.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" t="n">
+        <v>37240.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12347.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>